--- a/inflation-22.xlsx
+++ b/inflation-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepTemplates\data_analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D941E0-6B1F-4B09-9E75-59604A5191B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E660A8-5386-4F1F-8EE4-5FA9D1E46029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2E9E638B-0D39-4C68-AD14-5B0FB3DBF950}"/>
   </bookViews>
@@ -442,7 +442,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -917,10 +917,10 @@
         <v>100</v>
       </c>
       <c r="C17" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D17">
-        <v>195.89</v>
+        <v>158.16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -931,10 +931,10 @@
         <v>34.58</v>
       </c>
       <c r="C18" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D18">
-        <v>221.14</v>
+        <v>162.96</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,10 +945,10 @@
         <v>29.6</v>
       </c>
       <c r="C19" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D19">
-        <v>214.82</v>
+        <v>165.99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -959,10 +959,10 @@
         <v>4.99</v>
       </c>
       <c r="C20" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D20">
-        <v>258.67</v>
+        <v>145.01</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -973,10 +973,10 @@
         <v>1.02</v>
       </c>
       <c r="C21" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D21">
-        <v>198.46</v>
+        <v>146.47999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -987,10 +987,10 @@
         <v>8.6</v>
       </c>
       <c r="C22" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D22">
-        <v>182.32</v>
+        <v>156.81</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,10 +1001,10 @@
         <v>23.63</v>
       </c>
       <c r="C23" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D23">
-        <v>167.48</v>
+        <v>156.63</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1015,10 +1015,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D24">
-        <v>191.84</v>
+        <v>152.01</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1029,10 +1029,10 @@
         <v>2.79</v>
       </c>
       <c r="C25" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D25">
-        <v>186.02</v>
+        <v>161.46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,10 +1043,10 @@
         <v>5.91</v>
       </c>
       <c r="C26" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D26">
-        <v>245.27</v>
+        <v>172.34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1057,10 +1057,10 @@
         <v>2.21</v>
       </c>
       <c r="C27" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D27">
-        <v>111.89</v>
+        <v>110.11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1071,10 +1071,10 @@
         <v>1.59</v>
       </c>
       <c r="C28" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D28">
-        <v>166.8</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1085,10 +1085,10 @@
         <v>3.79</v>
       </c>
       <c r="C29" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D29">
-        <v>163.44999999999999</v>
+        <v>147.76</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1099,10 +1099,10 @@
         <v>6.92</v>
       </c>
       <c r="C30" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D30">
-        <v>196.51</v>
+        <v>156.27000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,10 +1113,10 @@
         <v>4.87</v>
       </c>
       <c r="C31" s="1">
-        <v>44866</v>
+        <v>44531</v>
       </c>
       <c r="D31">
-        <v>199.01</v>
+        <v>162.99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1127,10 +1127,10 @@
         <v>100</v>
       </c>
       <c r="C32" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D32">
-        <v>158.16</v>
+        <v>195.89</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1141,10 +1141,10 @@
         <v>34.58</v>
       </c>
       <c r="C33" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D33">
-        <v>162.96</v>
+        <v>221.14</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1155,10 +1155,10 @@
         <v>29.6</v>
       </c>
       <c r="C34" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D34">
-        <v>165.99</v>
+        <v>214.82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,10 +1169,10 @@
         <v>4.99</v>
       </c>
       <c r="C35" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D35">
-        <v>145.01</v>
+        <v>258.67</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1183,10 +1183,10 @@
         <v>1.02</v>
       </c>
       <c r="C36" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D36">
-        <v>146.47999999999999</v>
+        <v>198.46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1197,10 +1197,10 @@
         <v>8.6</v>
       </c>
       <c r="C37" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D37">
-        <v>156.81</v>
+        <v>182.32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1211,10 +1211,10 @@
         <v>23.63</v>
       </c>
       <c r="C38" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D38">
-        <v>156.63</v>
+        <v>167.48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,10 +1225,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C39" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D39">
-        <v>152.01</v>
+        <v>191.84</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1239,10 +1239,10 @@
         <v>2.79</v>
       </c>
       <c r="C40" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D40">
-        <v>161.46</v>
+        <v>186.02</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1253,10 +1253,10 @@
         <v>5.91</v>
       </c>
       <c r="C41" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D41">
-        <v>172.34</v>
+        <v>245.27</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1267,10 +1267,10 @@
         <v>2.21</v>
       </c>
       <c r="C42" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D42">
-        <v>110.11</v>
+        <v>111.89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1281,10 +1281,10 @@
         <v>1.59</v>
       </c>
       <c r="C43" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D43">
-        <v>133.6</v>
+        <v>166.8</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1295,10 +1295,10 @@
         <v>3.79</v>
       </c>
       <c r="C44" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D44">
-        <v>147.76</v>
+        <v>163.44999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1309,10 +1309,10 @@
         <v>6.92</v>
       </c>
       <c r="C45" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D45">
-        <v>156.27000000000001</v>
+        <v>196.51</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1323,10 +1323,10 @@
         <v>4.87</v>
       </c>
       <c r="C46" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="D46">
-        <v>162.99</v>
+        <v>199.01</v>
       </c>
     </row>
   </sheetData>
